--- a/first-atlas/producao_2025-10.xlsx
+++ b/first-atlas/producao_2025-10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29504"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustoalmeida\Augusto\bots_comissionamento\bot_atlas\first-atlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC6E0123-242B-4090-B1FE-4BF0DB692CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B83430-3A5D-4193-8045-19BE0F70A285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D1C099BC-A8C7-4AD4-936B-EC4DD753DBE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{D1C099BC-A8C7-4AD4-936B-EC4DD753DBE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8230" uniqueCount="3328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8231" uniqueCount="3329">
   <si>
     <t>DATA_BASE</t>
   </si>
@@ -10020,6 +10020,9 @@
   </si>
   <si>
     <t>EL BARTO BRINDES E CONFECCOES LTDA</t>
+  </si>
+  <si>
+    <t>PENDENCIAS</t>
   </si>
 </sst>
 </file>
@@ -10391,10 +10394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262EDEBE-55BF-47D0-92FE-9411A709AF12}">
-  <dimension ref="A1:F1646"/>
+  <dimension ref="A1:G1646"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10403,7 +10406,7 @@
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10422,8 +10425,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45931</v>
       </c>
@@ -10443,7 +10449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45931</v>
       </c>
@@ -10463,7 +10469,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45931</v>
       </c>
@@ -10483,7 +10489,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45931</v>
       </c>
@@ -10503,7 +10509,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45931</v>
       </c>
@@ -10523,7 +10529,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45931</v>
       </c>
@@ -10543,7 +10549,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45931</v>
       </c>
@@ -10563,7 +10569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45931</v>
       </c>
@@ -10583,7 +10589,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45931</v>
       </c>
@@ -10603,7 +10609,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45931</v>
       </c>
@@ -10623,7 +10629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45931</v>
       </c>
@@ -10643,7 +10649,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45931</v>
       </c>
@@ -10663,7 +10669,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45931</v>
       </c>
@@ -10683,7 +10689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45931</v>
       </c>
@@ -10703,7 +10709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45931</v>
       </c>
